--- a/_r-rstudio-update-steps-refs.xlsx
+++ b/_r-rstudio-update-steps-refs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Documents\_MyStuff\7_projects\tech-sandbox\24-r-updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC57F8-C96A-4D3A-BBA1-26B65D0A9F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9977843-1EC7-45A6-9B56-F844165CC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="14651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>update rstudio</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>returns username and email as on github</t>
+  </si>
+  <si>
+    <t>add git repo to existing R project</t>
+  </si>
+  <si>
+    <t>open the R project &amp; go to console</t>
+  </si>
+  <si>
+    <t>library(usethis)</t>
+  </si>
+  <si>
+    <t>use_git()</t>
+  </si>
+  <si>
+    <t>follow the user prompts - confirm to add files to the repo</t>
+  </si>
+  <si>
+    <t>restart Rstudio &amp; look for git tab in upper right block</t>
   </si>
 </sst>
 </file>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -518,6 +536,36 @@
       </c>
       <c r="D24" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/_r-rstudio-update-steps-refs.xlsx
+++ b/_r-rstudio-update-steps-refs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Documents\_MyStuff\7_projects\tech-sandbox\24-r-updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9977843-1EC7-45A6-9B56-F844165CC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D5BEBC-834C-4FBE-9FC8-733FFF2ADD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="14651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>update rstudio</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>restart Rstudio &amp; look for git tab in upper right block</t>
+  </si>
+  <si>
+    <t>Git with R</t>
+  </si>
+  <si>
+    <t>https://rfortherestofus.com/2021/02/how-to-use-git-github-with-r</t>
+  </si>
+  <si>
+    <t>https://happygitwithr.com/</t>
+  </si>
+  <si>
+    <t>https://sites.northwestern.edu/researchcomputing/resources/using-git-and-github-with-r-rstudio/</t>
   </si>
 </sst>
 </file>
@@ -442,129 +454,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D31"/>
+  <dimension ref="B2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -573,6 +585,9 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{9562CD46-79DC-4577-BDA0-272C100351CD}"/>
     <hyperlink ref="B8" r:id="rId2" xr:uid="{A6F1DAAA-4488-49E8-8B5E-C7AC1EA50424}"/>
     <hyperlink ref="B9" r:id="rId3" xr:uid="{1D9F1838-1B60-4CD8-B47F-ED962980E8F1}"/>
+    <hyperlink ref="N3" r:id="rId4" xr:uid="{64F68C78-E22E-4522-9B73-A4678EC1A167}"/>
+    <hyperlink ref="N4" r:id="rId5" xr:uid="{ED563605-916D-46D8-9443-E83703AFCD74}"/>
+    <hyperlink ref="N5" r:id="rId6" xr:uid="{D53570F7-44C5-441D-BB83-D76D8F0266C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_r-rstudio-update-steps-refs.xlsx
+++ b/_r-rstudio-update-steps-refs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Documents\_MyStuff\7_projects\tech-sandbox\24-r-updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D5BEBC-834C-4FBE-9FC8-733FFF2ADD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17F9EE-A6BB-4E16-AF0B-F0AFED7D94AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="14651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>update rstudio</t>
   </si>
@@ -60,9 +60,6 @@
     <t>install the "installr" package if needed</t>
   </si>
   <si>
-    <t>run the file:  r-updates-commands.rmd</t>
-  </si>
-  <si>
     <t xml:space="preserve">update git from git cmd </t>
   </si>
   <si>
@@ -109,6 +106,33 @@
   </si>
   <si>
     <t>https://sites.northwestern.edu/researchcomputing/resources/using-git-and-github-with-r-rstudio/</t>
+  </si>
+  <si>
+    <t>make github repo for an existing R project</t>
+  </si>
+  <si>
+    <t>use_github()</t>
+  </si>
+  <si>
+    <t>The R version is also at upper left of the console</t>
+  </si>
+  <si>
+    <t>open the file:  r-updates-commands.rmd</t>
+  </si>
+  <si>
+    <t>Important!! Set Rstudio to use the new version!</t>
+  </si>
+  <si>
+    <t>Tools &gt; Global Options &gt; General &gt; Change R version</t>
+  </si>
+  <si>
+    <t>https://docs.posit.co/ide/server-pro/user/rstudio-pro/guide/multiple-r-versions.html</t>
+  </si>
+  <si>
+    <t>https://support.posit.co/hc/en-us/articles/212364537-Using-multiple-versions-of-R-with-RStudio-Workbench-RStudio-Server-Pro</t>
+  </si>
+  <si>
+    <t>nice control of R versions in Rstudio pro</t>
   </si>
 </sst>
 </file>
@@ -161,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -171,6 +195,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -454,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P19"/>
+  <dimension ref="B2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -467,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
@@ -475,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
@@ -483,12 +511,12 @@
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -496,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -504,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -512,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
@@ -525,59 +553,101 @@
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="N12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
         <v>16</v>
       </c>
-      <c r="P12" t="s">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N17" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N18" s="3" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N19" s="3" t="s">
-        <v>23</v>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -590,5 +660,6 @@
     <hyperlink ref="N5" r:id="rId6" xr:uid="{D53570F7-44C5-441D-BB83-D76D8F0266C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>